--- a/WCAG Comparison todo it on Sunday..xlsx
+++ b/WCAG Comparison todo it on Sunday..xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Derwin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CrimsonHearts\Documents\GitHub\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F6A230-160F-40CA-8D1D-20248001B355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="3170" windowWidth="14400" windowHeight="7360" xr2:uid="{890185DE-B281-4ECA-B2C3-A01216CAB0EE}"/>
+    <workbookView xWindow="11940" yWindow="3165" windowWidth="14400" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>WCAG 1.0</t>
   </si>
@@ -56,16 +55,122 @@
   </si>
   <si>
     <t>Text equivalent for an</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Guidline Organization</t>
+  </si>
+  <si>
+    <t>- The guidline number
+- The Statement of the guideline.
+- Guideline navigation links. Three links allow navigation to the next guideline (right arrow icon), the previous guideline (left arrow icon), the current guideline's position in the table of contents (up arrow icon).
+The rationale behind the guideline and some groups of users who benefit from it.
+A list of checkpoint definition</t>
+  </si>
+  <si>
+    <t>Checkpoint Definition</t>
+  </si>
+  <si>
+    <t>- The checkpoint number
+-  The statement of the checkpoint.
+- Thepriority of the checkpoint. Priority 1 checkpoints are highlighted through the use of style sheets.
+- Optional informative notes, clarifying examples, and cross references to related guidelines or checkpoints
+- A link to a section of the Techniques Document  where implementations and examples of the checkpoint are discussed.</t>
+  </si>
+  <si>
+    <t>Priorities</t>
+  </si>
+  <si>
+    <t>Each Checkpoint has a priority level assigned by the Working group based on the checkpoint's impact on accessibility.
+One or more groups will find it impossible to access information in the document, if any of the 3 priority are not satisfied.
+[Priority 1]
+A Web content developer must satisfy this checkpoint.  Satisfying this checkpoint is a basic requirement for some groups to be able to use Web documents.
+[Priority 2]
+A Web content developer should satisfy this checkpoint. Satisfying this checkpoitn will remove significant barriers to accessing Web Document
+[Priority3]
+A Web content developer may address this checkpoint. Satisfying this checkpoint will improved access to Web Document</t>
+  </si>
+  <si>
+    <t>Web Content Accessibility Guideline</t>
+  </si>
+  <si>
+    <t>Guidline 1 
+Text Equivalent or Alternative to auditory and visual content</t>
+  </si>
+  <si>
+    <t>Guideline Links:</t>
+  </si>
+  <si>
+    <t>Provide equivalent alternatives to auditory and visual content.
+This specific guideline covers a range where images,videos, text, sounds alternative are important as it's users who have sensory disability or even reading difficulty. However, just implementation of this specific guideline maynot be enough as the text equivalent/alternative may be a good approach to allow accessibility concepts of color/ font size/ font thickness / number of flashes can also be another alternative to further aid it's users to understand the content .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 Provide a text quivalent for every non-text element. </t>
+  </si>
+  <si>
+    <t>This includes: images, graphical representations of text (including symbols), image map regions, animation, applets and programmatic objects, ascii art, frames, scripts, images used as list bullets, spacers, graphical buttons, sounds (played with or without user interaction), stand-alone audio files, audio tracks of video and video.
+Online advertisement in Website/games are one of the areas that may prove to be diffcult in apply text equivalent as Site such youtube where they show dynamicity of advertisement.</t>
+  </si>
+  <si>
+    <t>1.2 Provide redundant text links for each active region of a server-side image map.</t>
+  </si>
+  <si>
+    <t>Providing such text links for each active region of a server-side image map may prove to be a challenge to as some site image are usually redirected to a specific page.
+However using this set of guideline could be useful and implemented across education and health to help provide useful information to allow it's users to have a better understanding of such images.</t>
+  </si>
+  <si>
+    <t>1.3 Until user agents can automatically read aloud the text equivalent of a visual track, provide an auditory description of the important information of the visual track of a multimedia presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refer to
+- Checkpoint 9.1
+- Checkpoint 13.10
+Techniques:
+https://www.w3.org/TR/WAI-WEBCONTENT-TECHS/#tech-text-equivalent
+Refered Link:
+http://dsq-sds.org/article/view/281/311
+</t>
+  </si>
+  <si>
+    <t>Refer to:
+- Checkpoint 1.5
+- Checkpoint 9.1
+Techniques:
+https://www.w3.org/TR/WAI-WEBCONTENT-TECHS/#tech-redundant-server-links</t>
+  </si>
+  <si>
+    <t>Refer to:
+- Checkpoint 1.4
+- Checkpoint 1.1
+Techniques: 
+http://www.w3.org/TR/WAI-WEBCONTENT-TECHS/#tech-auditory-descriptions</t>
+  </si>
+  <si>
+    <t>More research on the range and variety of user agent compatibility is required.
+However, in the event where the user agents are unable to provide it's user with proper information</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/TR/WAI-WEBCONTENT/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,19 +193,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,54 +520,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6CA721-92B8-4941-A5E1-8820B2E43367}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="87" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="288" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WCAG Comparison todo it on Sunday..xlsx
+++ b/WCAG Comparison todo it on Sunday..xlsx
@@ -1,36 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CrimsonHearts\Documents\GitHub\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5111BC-BA68-463F-996B-5FCC94A38115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="3165" windowWidth="14400" windowHeight="7365"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>WCAG 1.0</t>
   </si>
@@ -96,10 +92,6 @@
     <t>Web Content Accessibility Guideline</t>
   </si>
   <si>
-    <t>Guidline 1 
-Text Equivalent or Alternative to auditory and visual content</t>
-  </si>
-  <si>
     <t>Guideline Links:</t>
   </si>
   <si>
@@ -154,11 +146,139 @@
   <si>
     <t>https://www.w3.org/TR/WAI-WEBCONTENT/</t>
   </si>
+  <si>
+    <t xml:space="preserve">1.4 For any time-based multimedia presentation (e.g., a movie or animation), synchronize equivalent alternatives (e.g., captions or auditory descriptions of the visual track with the presentation. </t>
+  </si>
+  <si>
+    <t>1.5 Until user agents render text equivalent for client-side image map links, provide redundant text links for each active region of a client-side image map</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Text Equivalent or Alternative to auditory and visual content</t>
+  </si>
+  <si>
+    <t>Guideline 2: Don't Rely on Color alone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 Ensure that all information conveyed with color is also available without color, for example from context or markup.
+</t>
+  </si>
+  <si>
+    <t>2.2 Ensure that foreground and background color combinations provide sufficient contrast whe viewed by someone having color deficits or when viewed on a black and white screen</t>
+  </si>
+  <si>
+    <t>Techniques:
+http://www.w3.org/TR/WAI-WEBCONTENT-TECHS/#tech-synchronize-equivalents</t>
+  </si>
+  <si>
+    <t>Techniques:
+https://www.w3.org/TR/WCAG10-CORE-TECHS/#structure</t>
+  </si>
+  <si>
+    <t>Structure Vs Presentation</t>
+  </si>
+  <si>
+    <t>2.1 Ensure that all information Conveyed with color is also available</t>
+  </si>
+  <si>
+    <t>3.1 When an appropriate markup language exists, use markup rather than images to convey information.</t>
+  </si>
+  <si>
+    <t>3.3 Use style sheets to control layout and presentation</t>
+  </si>
+  <si>
+    <t>3.5 Use header elements to convey document structure and use them according to specification.</t>
+  </si>
+  <si>
+    <t>3.6 Mark up lists and list items properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.3 Do not use tables for layout unless the table makes sense when linearized. Otherwise if the table does not make sense, provide an laternative equivalent </t>
+  </si>
+  <si>
+    <t>5.4 If a table is used for layout, do not use any structural markup for the purpose of visual formatting</t>
+  </si>
+  <si>
+    <t>6.4 For Scripts and applets ensure that even handlers are input device-independent</t>
+  </si>
+  <si>
+    <t>Text Equivalents</t>
+  </si>
+  <si>
+    <t>1.1 Provide a text equivalent for every non-text element (e.g., via "alt", "longdesc", or in element content). This includes: images, graphical representations of text (including symbols), image map regions, animations (e.g., animated GIFs), applets and programmatic objects, ASCII art, frames, scripts, images used as list bullets, spacers, graphical buttons, sounds (played with or without user interaction), stand-alone audio files, audio tracks of video, and video.</t>
+  </si>
+  <si>
+    <t>1.2 Provide redundant text links for each active region of a server-side image map.</t>
+  </si>
+  <si>
+    <t>1.5 Until user agents render text equivalents for client-side image map links, provide redundant text links for each active region of a client-side image map.</t>
+  </si>
+  <si>
+    <t>12.2 Describe the purpose of frames and how frames relate to each other if it is not obvious by frame titles alone. </t>
+  </si>
+  <si>
+    <t>Usage / Covers</t>
+  </si>
+  <si>
+    <t>In this section it covers on how structure can be good in implementation and how the inverse holds as well due to the wide range of Web users and devices.
+Are there any methods to help content developers understand the purpose of structures and presentation?
+Yes, the content covers a wide range on how users may adopt the CSS to help with the presentation format. Also what are the cons of using structural elements to aid in presentation.
+What are the benefits of using structure to achieve presentations?
+The benefits of using structure to achieve presentation might be easier. However, presentation created in such ways may create unwanted side-effect in some browsers.
+Therefore the alternative to provide proper presentation should be through the usage of CSS instead of using the mark up language structural elements
+Framework can also be implemented to allow dynamicity in structure and also aid in presentation such as how the order of pages should be rendered and placed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percetion law should freeze the dynamic the image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">automation and operatability when an image pop out and hover it becomes larger the user must be able to use that base on operability.
+Base on perception the developer must give user sufficient time </t>
+  </si>
+  <si>
+    <t>color confliction</t>
+  </si>
+  <si>
+    <t>need to generalize the methodology of verification. Is captcha the only way to verify</t>
+  </si>
+  <si>
+    <t>autehntication for robot and how do they deal with it how do they deal with people with security purposess and how to compare them</t>
+  </si>
+  <si>
+    <t>4 and 12 compare</t>
+  </si>
+  <si>
+    <t>Is Framework the only solution to implement structure:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is CSS the only solution to implement presentation reduce the amount of side-effect: </t>
+  </si>
+  <si>
+    <t>becarefull on terms check the glossary on terms</t>
+  </si>
+  <si>
+    <t>w3c definitionation glossary page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">different </t>
+  </si>
+  <si>
+    <t>svg is a w3c standard image</t>
+  </si>
+  <si>
+    <t>javascript own by who</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emca 6 /7 </t>
+  </si>
+  <si>
+    <t>how react implement concept in ecma</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,7 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -206,6 +326,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -520,25 +652,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="58.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.1796875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,13 +678,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -560,7 +692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -568,7 +700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="288" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="288" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -576,56 +708,88 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="145" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="174" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="8" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="9" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -636,7 +800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -649,8 +813,182 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8022FABD-8466-43DF-852E-E857A5DB417E}">
+  <dimension ref="A1:Q68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.90625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="5"/>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="I4" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="I6" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="I7" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="I8" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="143.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="68" spans="12:17" ht="377" x14ac:dyDescent="0.35">
+      <c r="L68" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N68" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O68" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P68" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q68" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C10:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/WCAG Comparison todo it on Sunday..xlsx
+++ b/WCAG Comparison todo it on Sunday..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CrimsonHearts\Documents\GitHub\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5111BC-BA68-463F-996B-5FCC94A38115}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
   <si>
     <t>WCAG 1.0</t>
   </si>
@@ -274,12 +273,221 @@
   <si>
     <t>how react implement concept in ecma</t>
   </si>
+  <si>
+    <t>Image map can use 'alt' to to provide text before user agent render</t>
+  </si>
+  <si>
+    <t>There are four frames in this example. The frame along the top of the page is for the page title and primary navigation bar. The narrow frame (center, left) is to be used for the List of links. The largest frame (center, right) is where the content of the document chosen from the List of links will appear. The frame across the bottom of the page is for the copyright, secondary navigation and other constant information.</t>
+  </si>
+  <si>
+    <t>Overview of technology</t>
+  </si>
+  <si>
+    <t>Backward Compatibility</t>
+  </si>
+  <si>
+    <t>How one specifies a text equivalent depends on the document language.
+For example, depending on the element, HTML allows content developers to specify text equivalents through attributes ("alt" or "longdesc") or in element content (the OBJECT element).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this section it covers how to provide text equivalent for multiple senarios such as images, applet, ASCII art, frames scripts, audio tracks of video and video and etc.
+Implementing text equivalent is very useful to help it's user to identify the content that the author wishes to project. 
+However, for 12.2 Describe the purpose of frame and how frames related to each other if it is not obvious by frames titles alone. Might not be relevant to text equivalent as the long desc doesn't appear mention in their sample doesn't appear. 
+</t>
+  </si>
+  <si>
+    <t>However, more research on how frame display longdesc might be required to ensure if the purpose of a long desc is useful. In a text equivalent senario as the purpose of the long desc does not seem to display any output for users rather more for programmers.</t>
+  </si>
+  <si>
+    <t>Content develoeprs must consider backward compatibility when designing Web pages or sites since:
+- Some user agents do not support some HTML features,
+- People may use older browsers or video players,
+- Compatibility problems may arise between software
+Therefore, when designing for older technologies, consider these techniques:
+- Provide inline text equivalents. For example, include a description of the image immediately after the image.
+- Provide links to long text equivalents either in a different file or on the same page. These are call description links or "d-links". The link text should explain that the link designates a description. Where possible, it should also explain the nature of the description. However, content developers concerned about how the description link will affect the visual appearance of the page may use more discrete link text such as "[D]", which is recommended by NCAM. In this case, they should also provide more information about the link target so that users can distinguish links that share "[D]" as content.</t>
+  </si>
+  <si>
+    <t>At the moment this may not be relevant to the project as the user-agent that we are testing upon are newer versions.</t>
+  </si>
+  <si>
+    <t>11.4 If, after best efforts, you cannot create an accessible page, provide a link to an alternative page that uses W3C technologies, is accessible, has equivalent information (or functionality), and is updated as often as the inaccessible (original) page</t>
+  </si>
+  <si>
+    <t>6.5 Ensure that dynamic content is accessible or provide an alternative presentation or page.</t>
+  </si>
+  <si>
+    <t>Such alternatives pages may not be implemented by the author themselves. As services such as cloudflare provides an alternative solution if the original is inaccessible.
+However through such solutions are available they are not able to ensure that the alternative page may be available when the original is inaccessible. Therefore a proper alternative page that uses the W3C technologies may prove to be equally important in this senario</t>
+  </si>
+  <si>
+    <t>Alternative Pages (cont. Below)</t>
+  </si>
+  <si>
+    <t>9.3 For scripts, specify logical event handlers rather than device- dependent event handlers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2 Ensure that any element that has it own interface can be operated in a device-independent manner.
+</t>
+  </si>
+  <si>
+    <t>9.4 For scripts, specify logical event handlers rather than device dependent event handlers</t>
+  </si>
+  <si>
+    <t>9.5 Provide keyboard shortcuts to important links (including those in client-side image maps), form controls, and groups of form controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Take note of how to implement such shortscuts</t>
+  </si>
+  <si>
+    <t>Here are two techniques for linking to an accessible alternative page:
+1. Provide links at the top of both the main and alternative pages to allow a user to move back and forth between them. For example, at the top of a graphical apge include a link to the text-only page, and at the top of a text-only page include a link to the associated graphical page. Ensure that these links are one of the first that users will tab to by placing them at the top of the page, before other links.
+2. Use meta information to designate alternative documents. Browsers should load the alternative page automatically based on the user's browser type and preferences.</t>
+  </si>
+  <si>
+    <t>Device-independent control for embedded interfaces</t>
+  </si>
+  <si>
+    <t>Some elements import objects whose interfaces cannot be controlled through the markup language. In such cases, content developeres should provide alternative equivalents with accessible interfaces if the imported objects themselves do not provide accessible interfaces.</t>
+  </si>
+  <si>
+    <t>This portion will be reviewed later if time persist as it is not within the scope of the project.</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>14.3 Create a style of presentation that is consistent across pages.</t>
+  </si>
+  <si>
+    <t>13.4 Use navigation mechanisms in a consistent manner.</t>
+  </si>
+  <si>
+    <t>13.5 Provide navigation bars to highlight and give access to the navigation mechanism</t>
+  </si>
+  <si>
+    <t>13.7 If search function are provided, enable different types of searches for different skill levels and preference</t>
+  </si>
+  <si>
+    <t>13.2 Provide metadata to add semantic information to pages and sites.</t>
+  </si>
+  <si>
+    <t>Comprehension</t>
+  </si>
+  <si>
+    <t>14.1 Use the clearest and simplest language appropriate for a site's content.</t>
+  </si>
+  <si>
+    <t>13.8 Place distinguishing information at the beginning of headings, paragraphs, lists, etc.</t>
+  </si>
+  <si>
+    <t>14.2 Supplement text with graphic or auditory presentation where they will facilitate comprehension of the page.</t>
+  </si>
+  <si>
+    <t>Multimedia Equivalents</t>
+  </si>
+  <si>
+    <t>For people who do not read well or not at all, multimedia (non-text) equivalents may help facilitate comprehension. Beware that multimedia presentations do not always make text easier to understand. Sometimes, multimedia presentations may make it more confusing.
+Examples of multimedia that supplement text:
+A chart of complex data, such as sales figures of a business for the past fiscal year.
+A translation of the text into a Sign Language movie clip. Sign Language is a very different language than spoken languages. For example, some people who may communicate via American Sign Language may not be able to read American English.
+Pre-recorded audio of music, spoken language, or sound effects may also help non-readers who can perceive audio presentations. Although text may be generated as speech through speech synthesis, changes in a recorded speaker's voice can convey information that is lost through synthesis.</t>
+  </si>
+  <si>
+    <t>Content negotiation</t>
+  </si>
+  <si>
+    <t>11.3 Provide information so that users may receive documents according to their preference (e.g., Language, content type, etc.)</t>
+  </si>
+  <si>
+    <t>Automatic page refresh</t>
+  </si>
+  <si>
+    <t>7.4 Until user agents provide the ability to stop the regresh, do not create periodically auto-refreshing pages</t>
+  </si>
+  <si>
+    <t>7.5 Until user agents provide the ability to stop auto-redirect, donot use markup to redirect pages automatically. Instead, configure the server to perform redirects.</t>
+  </si>
+  <si>
+    <t>Screen Flicker</t>
+  </si>
+  <si>
+    <t>7.1 Until user agents allow users to control flickering, avoid causing the screen to flicker.</t>
+  </si>
+  <si>
+    <t>Bundled documents</t>
+  </si>
+  <si>
+    <t>13.9 Provide information about document collections (i.e., documents ocmprising multiple page.)</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>10.1 Automatic validators</t>
+  </si>
+  <si>
+    <t>10.2 Repair tools</t>
+  </si>
+  <si>
+    <t>10.3 User scenarios</t>
+  </si>
+  <si>
+    <t>10.4 Spell and grammar checks</t>
+  </si>
+  <si>
+    <t>Browser Support</t>
+  </si>
+  <si>
+    <t>At the time of this writing, not all user agents support some of the HTML 4.01 [HTML4] attributes and elements that may significantly increase accessibility of Web pages.</t>
+  </si>
+  <si>
+    <t>Technologies Reviewed for Accessibility</t>
+  </si>
+  <si>
+    <t>11.1 Use W3C technologies when they are available and appropriate for a task and use the latest version when supported.
+"Web Content Accessibility Guidelines 1.0" suggest using W3C technologies since they have been reviewed for accessibility issues and therefore have accessibility eatures built in. The latest W3C technologies area available from the W3C technical reports and Publications page.
+Brief overview of current W3C technologies:
+- MathML for mathematical equations
+- HTML, XHTMl, XML for structured documents
+-RDF for meta data
+- SMIL to create multimedia presentations
+-CSS and XSL to define style sheets</t>
+  </si>
+  <si>
+    <t>@Prof Alex other then CSS there is XSL to define style sheets</t>
+  </si>
+  <si>
+    <t>Audio information</t>
+  </si>
+  <si>
+    <t>1.4 For any time-based multimedia presentation(e.g., a movie or animation), synchronize equivalent alternatives (e.g., captions or auditory descriptions of the visual track)</t>
+  </si>
+  <si>
+    <t>Visual information and motion</t>
+  </si>
+  <si>
+    <t>1.3 Until user agents can automatically read aloud the text equivalent of visual track, provide an auditory description of the important information of the visual track of a multimedia presentation.</t>
+  </si>
+  <si>
+    <t>7.3 Until user agents allow user to freeze moving content, avoid movement in pages.</t>
+  </si>
+  <si>
+    <t>Collated text transcripts</t>
+  </si>
+  <si>
+    <t>Collated text transcript allow access by people with both visual and hearing disabilities they also provide everyone with they ability to index and search for information contained in audio/visual materials.
+Collated text transcripts include spoken dialogue as well as any other significant sounds including on-screen and off-screen sounds, music, laughter, applause, etc. In other words, all of the text that appear in captions as well as all of the descriptions provided in the auditory description</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/TR/WCAG10-CORE-TECHS/#access-reviewed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +499,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -333,10 +548,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -354,6 +578,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>551359</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1704762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9034096" y="11327423"/>
+          <a:ext cx="2866667" cy="1704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -652,7 +919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -660,17 +927,17 @@
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.1796875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -684,7 +951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -692,7 +959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -700,7 +967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="288" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="288" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -708,7 +975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -719,7 +986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="174" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -733,7 +1000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -744,7 +1011,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -755,7 +1022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -763,12 +1030,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -779,17 +1046,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -800,7 +1067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -813,30 +1080,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C13" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8022FABD-8466-43DF-852E-E857A5DB417E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38.26953125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.90625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="31.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -844,26 +1112,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:10" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="87" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
@@ -877,118 +1145,420 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="10"/>
       <c r="I4" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="10"/>
       <c r="I6" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="10"/>
       <c r="I7" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="87" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="10"/>
       <c r="I8" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="143.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:10" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="6"/>
+      <c r="C10" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
       <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="6"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
       <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
       <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="68" spans="12:17" ht="377" x14ac:dyDescent="0.35">
-      <c r="L68" s="7" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="9"/>
+      <c r="B27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="12:17" ht="405" x14ac:dyDescent="0.25">
+      <c r="L68" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="M68" s="7" t="s">
+      <c r="M68" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="N68" s="7" t="s">
+      <c r="N68" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="O68" s="7" t="s">
+      <c r="O68" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P68" s="7" t="s">
+      <c r="P68" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="Q68" s="7" t="s">
+      <c r="Q68" s="6" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="15">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="C2:C9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="C28:C30"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B50" r:id="rId1" location="access-reviewed" display="https://www.w3.org/TR/WCAG10-CORE-TECHS/ - access-reviewed"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/WCAG Comparison todo it on Sunday..xlsx
+++ b/WCAG Comparison todo it on Sunday..xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="143">
   <si>
     <t>WCAG 1.0</t>
   </si>
@@ -482,12 +483,72 @@
   <si>
     <t>https://www.w3.org/TR/WCAG10-CORE-TECHS/#access-reviewed</t>
   </si>
+  <si>
+    <t>Guideline 1.1</t>
+  </si>
+  <si>
+    <t>Text Alternatives</t>
+  </si>
+  <si>
+    <t>Success Criterion</t>
+  </si>
+  <si>
+    <t>4.1.2 Additional Requirements for controls and content that accepts user input.</t>
+  </si>
+  <si>
+    <t>Decoration, Formatting, Invisibile: If non-text content is pure decoration, is used only for visual formatting in a way that it can be ignored by assistive technology.</t>
+  </si>
+  <si>
+    <t>CAPTCHA: If the purpose of a non-text content is to confirm that content is being accessed by a person rather than a computer, then text alternatives that identify and describe the purpose of the non-text content are provided, and alternative form of captcha using output modes for different type of sensory perception are provided to accomodate different disabilities.</t>
+  </si>
+  <si>
+    <t>Sensory: If non-text content is primarily intended to create a specific sensory experience, then text alternatives at least provide descriptive identification of the non-text content.</t>
+  </si>
+  <si>
+    <t>Test: If non-text content is a test or exercise that would be invalid if presented in text, then text alternative at least provide descriptitve identification of the non-text content.</t>
+  </si>
+  <si>
+    <t>Time-based Media: If non-text content is time-based media, then text alternatives at least provide descriptive identification of the non-text content.</t>
+  </si>
+  <si>
+    <t>Controls, Input: If non-text content is a control or accepts user input, then it has a name that describes its purpose.</t>
+  </si>
+  <si>
+    <r>
+      <t>1.1.1 Non-text Content - Level A
+All non-text content that is presented to the user has a text alternative that serves the equivalent purpose, except for the situations listed below</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Guideline 1.2 for additional requirement for media</t>
+  </si>
+  <si>
+    <t>Situation</t>
+  </si>
+  <si>
+    <t>Providing a text alternative describing the purpose of the CAPTCHA and ensure that another CAPTCHA serving the same purpose using a different modality</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +567,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -557,10 +626,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1090,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -1113,13 +1182,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1127,11 +1196,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="9"/>
       <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
@@ -1146,93 +1215,93 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="9"/>
       <c r="I4" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="9"/>
       <c r="I6" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="9"/>
       <c r="I7" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="9"/>
       <c r="I8" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:10" ht="195" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="9"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="7" t="s">
         <v>68</v>
       </c>
@@ -1260,52 +1329,52 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="9"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="9"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="9"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="A21" s="10"/>
       <c r="B21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="4" t="s">
         <v>84</v>
       </c>
@@ -1322,64 +1391,64 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="9"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
+      <c r="A24" s="10"/>
       <c r="B24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="9"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="A25" s="10"/>
       <c r="B25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="9"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="A26" s="10"/>
       <c r="B26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="9"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="9"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="9"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="A29" s="10"/>
       <c r="B29" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="9"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="A30" s="10"/>
       <c r="B30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -1398,20 +1467,20 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
+      <c r="A34" s="10"/>
       <c r="B34" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -1472,7 +1541,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -1480,7 +1549,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="9"/>
+      <c r="A44" s="10"/>
       <c r="B44" s="4" t="s">
         <v>77</v>
       </c>
@@ -1538,12 +1607,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="A43:A44"/>
@@ -1553,6 +1616,12 @@
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="C28:C30"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B50" r:id="rId1" location="access-reviewed" display="https://www.w3.org/TR/WCAG10-CORE-TECHS/ - access-reviewed"/>
@@ -1561,4 +1630,88 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/WCAG Comparison todo it on Sunday..xlsx
+++ b/WCAG Comparison todo it on Sunday..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CrimsonHearts\Documents\GitHub\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090FF39A-D006-43E9-8C36-4701C44E8E11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -547,7 +548,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -626,10 +627,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -666,7 +667,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -988,7 +995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -996,17 +1003,17 @@
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.1796875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1020,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,7 +1035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1036,7 +1043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="288" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="288" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1044,7 +1051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1055,7 +1062,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1069,7 +1076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1080,7 +1087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1091,7 +1098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1099,12 +1106,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1115,17 +1122,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1136,7 +1143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1149,14 +1156,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1164,16 +1171,16 @@
       <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="31.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.81640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1181,26 +1188,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+    <row r="3" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="9"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
@@ -1214,99 +1221,99 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="10"/>
       <c r="I4" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="9"/>
+      <c r="C6" s="10"/>
       <c r="I6" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="10"/>
       <c r="I7" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="9"/>
+      <c r="C8" s="10"/>
       <c r="I8" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:10" ht="143.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" ht="195" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
       <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
       <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="10"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
       <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>69</v>
       </c>
@@ -1317,7 +1324,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1328,58 +1335,58 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
       <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
         <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
       <c r="B19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9"/>
       <c r="B20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
       <c r="B21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
@@ -1390,67 +1397,67 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
         <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="9"/>
       <c r="B24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="9"/>
       <c r="B25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="9"/>
       <c r="B26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="9"/>
       <c r="B27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="9"/>
       <c r="B29" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="9"/>
       <c r="B30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>99</v>
       </c>
@@ -1458,7 +1465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>101</v>
       </c>
@@ -1466,23 +1473,23 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="10"/>
-    </row>
-    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A34" s="9"/>
       <c r="B34" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="10"/>
-    </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>106</v>
       </c>
@@ -1490,7 +1497,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>108</v>
       </c>
@@ -1498,7 +1505,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>110</v>
       </c>
@@ -1506,22 +1513,22 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>115</v>
       </c>
@@ -1529,7 +1536,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>117</v>
       </c>
@@ -1540,21 +1547,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+    <row r="43" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="10"/>
+    <row r="44" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="9"/>
       <c r="B44" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>122</v>
       </c>
@@ -1562,17 +1569,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>125</v>
       </c>
@@ -1580,12 +1587,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="12:17" ht="405" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:17" ht="377" x14ac:dyDescent="0.35">
       <c r="L68" s="6" t="s">
         <v>57</v>
       </c>
@@ -1607,6 +1614,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="A43:A44"/>
@@ -1616,15 +1629,9 @@
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="C28:C30"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B50" r:id="rId1" location="access-reviewed" display="https://www.w3.org/TR/WCAG10-CORE-TECHS/ - access-reviewed"/>
+    <hyperlink ref="B50" r:id="rId1" location="access-reviewed" display="https://www.w3.org/TR/WCAG10-CORE-TECHS/ - access-reviewed" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1633,23 +1640,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.453125" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" customWidth="1"/>
+    <col min="5" max="5" width="30.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
         <v>141</v>
       </c>
@@ -1657,7 +1664,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -1671,7 +1678,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>137</v>
       </c>
@@ -1679,7 +1686,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
         <v>136</v>
       </c>
@@ -1687,17 +1694,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
         <v>133</v>
       </c>
@@ -1705,7 +1712,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
         <v>132</v>
       </c>

--- a/WCAG Comparison todo it on Sunday..xlsx
+++ b/WCAG Comparison todo it on Sunday..xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CrimsonHearts\Documents\GitHub\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090FF39A-D006-43E9-8C36-4701C44E8E11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Latest" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="202">
   <si>
     <t>WCAG 1.0</t>
   </si>
@@ -544,12 +545,381 @@
   <si>
     <t>Providing a text alternative describing the purpose of the CAPTCHA and ensure that another CAPTCHA serving the same purpose using a different modality</t>
   </si>
+  <si>
+    <t>Text Alternatives
+All non-text content that is presented to the user has a text alternative that serves the equivalent purpose, except for the situation listed below.</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Controls,Input : If non-text context is a control or accepts user input, then it has a name that describes its purpose.
+Time-Based Media: If non-text content is time-based media, then text alternatives at least provide descriptive identification of the non-text content.
+Test: If non-text content is a test or exercise that would be invalid if presented in text, then text alternatives at least provide descriptive identification of the non-text content.
+Sensory: If non-text content is primarily intended to create a specific sensory experience, then text alternatives at least provide descriptive identification of the non-text content.
+CAPTCHA: If the purpose of non-text content is to confirm that content is being accessed by a person rather than a computer, then text alternatives that identify and describe the purpose of the non-text content are provided, and alternative forms of CAPTCHA using output modes for different types of sensroy perception are provided to accommodate different disabilties.
+Decoration, formatting, Invisible: If non-text content is pure decoration, is used for visual formatting, or is not presented to users, then it is implemented in a way that it can be ignored by assistive technology</t>
+  </si>
+  <si>
+    <t>Some examples that can be further look upon but not exhaustive as we the research is targetting towards widget identification</t>
+  </si>
+  <si>
+    <t>Widgets WCAG Technique used but not exhaustive:</t>
+  </si>
+  <si>
+    <t>Time-Based Media
+For prerecorded audio-only and prerecorded v ideo-only media, the following are true except when the audio or video is a media alternative for text and is clearly labeled as such:</t>
+  </si>
+  <si>
+    <t>Prerecorded Audio-only: An alternative for time-based media is provided that presents equivalent information for prerecorded audio-only content.
+Prerecorded Video-only: Either an alternative for time-based Media or an audio track is provided that presents equivalent information for prerecorded video-only content.</t>
+  </si>
+  <si>
+    <t>Questions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this event is a CAPTCHA alternative audio be considered in the exception thought the CAPTHCHA could be in the form of an image instead of text as well?
+Can Carousel/ Slider be considered a time-based media content. As the Javascript is able to shift the pictures.
+</t>
+  </si>
+  <si>
+    <t>Links:</t>
+  </si>
+  <si>
+    <t>Prerecorded Audio-only: G158 Providing an alternative for time-based media for audio-only content, SL17 Providing Static Alternative Content for Silverlight Media Playing in a Media Element
+Prerecorded Video-only: G159 Providing an alternative for time-based media for video-only content, G166 Providing audio that describes the important video content and describing it as such, SL17 Providing Static Alternative Content for Silverlight Media Playing in a Media Element</t>
+  </si>
+  <si>
+    <t>Audio Only: https://www.w3.org/WAI/WCAG21/Techniques/general/G158
+Techniques to Track Video Elements:
+https://www.w3.org/WAI/WCAG21/Techniques/html/H96.html</t>
+  </si>
+  <si>
+    <t>Examples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Track Video Elements:
+&lt;video poster="myvideo.png" controls&gt;
+    &lt;source src="myvideo.mp4" srclang="en" type="video/mp4"&gt;
+    &lt;track src="myvideo_en.vtt" kind="descriptions" srclang="en" label="English"&gt;
+     &lt;/video&gt;</t>
+  </si>
+  <si>
+    <t>Guideline 1.2</t>
+  </si>
+  <si>
+    <t>Guideline 1.3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CAPTCHA: G143 Providing a text alternative that describes the purpose of the captcha AND G144: Ensuring that the Web Page contains another CAPTCHA serving the same purpose using a different modality
+Carousel/ Slider: G94 Providing short text alternative for non-text content that serves the same purpose and presents the same information as the non-text content. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">If </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">G94 is unable to serve the purpose then G95: Providing short text alternative that provides a brief description of the non-text content. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Widget is only for decoration purposes Implemeting or marking the non-text content so that it will be ignore by assistive technology: Techniques: C9, FLASH3, H67, PDF4 can be used
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Info and relationships
+Information, structure, and relationships conveyed through presentation can be programmatically determined or are available in text.
+Semantic Structure: to make information and relationships conveyed through presentation programmatically determinable
+No Semantic Structure: to make the information and relationship conveyed through presentation programmatically determinable.
+Meaningful Sequence
+When the sequence in which content is presented affects its meaning, a correct reading sequence can be programmatically determined.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptable
+Create content that can be presented in different ways (for example simpler layout) without losing information or structure
+</t>
+  </si>
+  <si>
+    <t>Semantic Structure: ARIA11, ARIA12, ARIA13, ARIA16,ARIA17, ARIA20, G115,G117, G140, ARIA 24, Making information and relationship conveyed through presentation programmatically determinable using the following techniques: (G138, H51, PDF6, H39, FLASH31, H73, FLASH23, H63, H43, FLASH21, H44,H65,PDF10, PDF12, FLASH32, FLASH29, FLASH 25, H71, SL20, SL26, H85, H48, H42, PDF9,SCR21, PDF11, PDF17, PDF21, H97)
+No Sematic Structure:G117, FLASH8,Making information and relationship conveyed through presentation programmatically determinable or available in text using the following techniques:(T1, T2,T3)
+Meaningful Sequence: G57,Making sequence in the content as meaningful AND G57 (H34 H56 , C6, C8) , C27,FLASH15, PDF3 SL34</t>
+  </si>
+  <si>
+    <t>Guideline 1.4</t>
+  </si>
+  <si>
+    <t>Distinguishable
+Make it easier for users to see and hear content including separating foreground from background.</t>
+  </si>
+  <si>
+    <t>Guideline 2.1</t>
+  </si>
+  <si>
+    <t>Keyboard Accesible
+Make all functionality available from a keyboard.</t>
+  </si>
+  <si>
+    <t>Keyboard: All functionality of the content is operable through a keyboard interface without requiring specific timings for individual keystrokes, except where the underlying function requires input that depends on the path of the user's movement and not just the endpoints.
+No Keyboard Trap: If keyboard focus can be moved to a component of the page using a keyboard interface, then focus can be moved away from that component using only a keyboard interface, and, if it requires more than unmodified arrow or tab keys or other standard exit methods, the user is advised of the method for moving focus away.
+Keyboard (No Exception): All functionality of the content is operable through a keyboard interface without requiring specific timings for individual keystrokes</t>
+  </si>
+  <si>
+    <t>Keyboard techniques: 
+G202, Ensuring keyboard control using one of the following techniques: (H91, PDF3, PDF11,PDF23, SL15), G90: (SCR20, SCR35, SCR2, SL9, SL14), FLASH17: (FLASH22, FLASH16, FLASH14)
+No Keyboard Trap: G21, FLASH17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">why I think it is useful:
+for lazy arses and easier navigation without the use of the mouse. </t>
+  </si>
+  <si>
+    <t>Guideline 2.2</t>
+  </si>
+  <si>
+    <t>Enough time
+Provide users enough time to read and use content</t>
+  </si>
+  <si>
+    <t>Timing Adjustable:
+For each time limit that is set by the content, at least one of the following is true:
+1. User is allowed to turn off the time limit before encountering it
+2. User is allowed to adjust the time limit before encountering it over a wide range that is at least ten times the length of the default setting
+3. User is warned before time expires and given at least 20 seconds to extend the time limit with a simple action (for example, "press the space bar"), and the user is allowed to extend the time limit at least ten times
+4. Real-time Exception: The time limit is a required part of a real-time event (for example, an auction), and no alternative to the time limit is possible
+5.Essential Exception: The time limit is essential and extending it would invalidate the activity
+6. 20 Hour Exception: The time limit is longer than 20 hours
+No timing:
+Timing is not an essential part of the event or activity presented by the content, except for non-interactive synchronized media and real-time events.</t>
+  </si>
+  <si>
+    <t>Timing Adjustable:
+If there are time limits on reading: (G4, G198, SCR33, SCR36)
+No timing: 
+G5: allowing users to complete an activity without time limit</t>
+  </si>
+  <si>
+    <t>Guideline 2.3</t>
+  </si>
+  <si>
+    <t>Seizures and Physical Reactions
+Do not design content in a way that is known to cause seizures or physical reactions.</t>
+  </si>
+  <si>
+    <t>Three Flashes or Below Threshold:
+Web pages do not contain anything that flashes more than three times in any one second period, or the flash is below the general flash and red flash thresholds.
+Three Flashes:
+Web pages do not contain anything that flashes more than three times in any one second period.</t>
+  </si>
+  <si>
+    <t>Techniques: G19, G176, G15</t>
+  </si>
+  <si>
+    <t>contents in either an accordion or carousel should not contain content that may cause a physical reaction from users especially image content</t>
+  </si>
+  <si>
+    <t>Guideline 2.4</t>
+  </si>
+  <si>
+    <t>Navigable
+Provide ways to help users navigate, find content, and determine where they are.</t>
+  </si>
+  <si>
+    <t>2.4.4?? Not very sure..
+Headings and Labels:
+Headings and labels describe topic or purpose
+Focus Visible:
+Any keyboard operable user interface has a mode of operation where the keyboard focus indicator is visible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heading and Labels: G130: Providing descriptive headings, G131: Providing descriptive labels 
+Focus Visible: G149, C15, G165, G195, using a change of contrast ratio to provide a visible focus indicator,  SCR31: Using script to change the background color or border of the element with focus, FLASH20: Reskinning Flash components to provide highly visible focus indication
+SL2: Changing The Visual Focus Indicator in Silverlight
+SL7: Designing a Focused Visual State for Custom Silverlight Controls </t>
+  </si>
+  <si>
+    <t>Guideline 2.5</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t>Guideline 4.1</t>
+  </si>
+  <si>
+    <t>Compatible
+Maximize compatibility with current and future user agents, including assistive technologies.</t>
+  </si>
+  <si>
+    <t>Parsing:
+In content implemented using markup languages, elements have complete start and end tags, elements are nested according to their specifications, elements do not contain duplicate attributes, and any IDs are unique, except where the specifications allow these features.
+Name, Role, Value:
+For all user interface components (including but not limited to: form elements, links and components generated by scripts), the name and role can be programmatically determined; states, properties, and values that can be set by the user can be programmatically set; and notification of changes to these items is available to user agents, including assistive technologies.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Parsing:
+G134, G192, H88, Ensuring that Web pages can be parsed by using one of the following techniques: (H74: Ensuring that opening and closing tags are used according to specification AND H93: Ensuring that id attributes are unique on a Web page AND H94: Ensuring that elements do not contain duplicate attributes H75: Ensuring that Web pages are well-formed)
+SL33: Using Well-Formed XAML to Define a Silverlight User Interface
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">not sure that the techniques fr 4.1.2 works here..
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>If using a standard user interface component in a markup language (e.g., HTML):
+ARIA14: Using aria-label to provide an invisible label where a visible label cannot be used
+ARIA16: Using aria-labelledby to provide a name for user interface controls
+G108: Using markup features to expose the name and role, allow user-settable properties to be directly set, and provide notification of changes
+H91: Using HTML form controls and links
+H44: Using label elements to associate text labels with form controls
+H64: Using the title attribute of the frame and iframe elements
+H65: Using the title attribute to identify form controls when the label element cannot be used
+H88: Using HTML according to spec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Use of Color: is not used as the only visual means of conveying information, indicating an action, prompting a response, or distinguishing a visual element
+Contrast: The visual presentation of text and images of text has a contrast ratio of at least 4.5:1, except Large Text and images with a contrast ratio of at least  (3:1), Incidental  text or iamge of text that are part of an inactive user interface component, that are pure decoration, that are not visible to anyone, or that are part of a picture that contain significant other visual content, have no trast requirement and Logotypes which is part oa logo or brand name has no contrast requirement
+Image of Text: if the technologies being used can achieve the visual presentation, text is used to convey information rather than image of text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ This color and contrast guide could be used  identify theimages in the widget such as Carousel, slider and etc.
+This portion could be hard to catch as identification of color on an image would require some image rendering tools to achieve. So due to short in time this portion will not be covered
+Image of text maybe able to link </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use of color:  In particular words,backgrounds,or other content is used to indicate information G14,G205, G182, G183, If color is used within an image to convey information G111, G14
+Contrast: Text lesser than 18 points if not bold and less than 14 point if bold should follow the following guide :G18 G148,G173,SLL13. However, If text is at least 18 points if not bold and at least 14 point if bold it should followat least : G145, G148, G174, SL13
+Image of text: C22, SL31, C30, G140, PDF7 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Side Note</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: when implementing font size use percentage</t>
+    </r>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Guideline 3.1</t>
+  </si>
+  <si>
+    <t>Input Modalities
+Make it easier for users to operate functionality through various inputs beyond keyboard.</t>
+  </si>
+  <si>
+    <t>Readable
+Make text content readable and understandable</t>
+  </si>
+  <si>
+    <t>Guideline 3.2</t>
+  </si>
+  <si>
+    <t>Language of Page
+The default human language of each Web page can be programmatically determined.
+Language of Parts
+The human language of each passage or phrase in the conten can be programmatically determined except for proper names, technical terms, words of indeterminate language, and words or phrases that have become part of the vernacular of the immediately surrounding text.
+Unusual Words
+A mechanism is available for identifying specific definition of words or phrases used in an unusual or restricted way, including idioms and jargon</t>
+  </si>
+  <si>
+    <t>Predictable
+Make Web pages appear and operate in predictable ways.</t>
+  </si>
+  <si>
+    <t>On Focus
+When any user interface component receives focus, it does not initiate a change of context</t>
+  </si>
+  <si>
+    <t>On Focus: G107: using activate rather than focus as a trigger for changes of context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When implementing On Focus for widget I think that </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -580,13 +950,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -602,7 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -626,11 +1027,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -670,7 +1089,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -995,7 +1414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1003,17 +1422,17 @@
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.1796875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1035,7 +1454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1043,7 +1462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="288" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="288" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1051,7 +1470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1062,7 +1481,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="174" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1076,7 +1495,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1087,7 +1506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1098,7 +1517,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1106,12 +1525,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1122,17 +1541,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1143,7 +1562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1156,14 +1575,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C13" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1171,16 +1590,16 @@
       <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38.26953125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="31.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1188,26 +1607,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:10" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="87" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
       <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
@@ -1221,99 +1640,99 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="17"/>
       <c r="I4" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="17"/>
       <c r="I6" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="17"/>
       <c r="I7" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="87" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="17"/>
       <c r="I8" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="143.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+    <row r="9" spans="1:10" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="9"/>
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
       <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="145" x14ac:dyDescent="0.35">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="9"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>69</v>
       </c>
@@ -1324,7 +1743,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1335,58 +1754,58 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9"/>
+    <row r="17" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9"/>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
       <c r="B19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9"/>
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
       <c r="B20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
       <c r="B21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="9"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
@@ -1397,67 +1816,67 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="9"/>
+      <c r="C23" s="18"/>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
       <c r="B24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="9"/>
+      <c r="C24" s="18"/>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
       <c r="B25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="9"/>
+      <c r="C25" s="18"/>
+    </row>
+    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
       <c r="B26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="9"/>
+      <c r="C26" s="18"/>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
       <c r="B27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
+      <c r="C27" s="18"/>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="9"/>
+      <c r="C28" s="18"/>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
       <c r="B29" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
+      <c r="C29" s="18"/>
+    </row>
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
       <c r="B30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" ht="391.5" x14ac:dyDescent="0.35">
+      <c r="C30" s="18"/>
+    </row>
+    <row r="31" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>99</v>
       </c>
@@ -1465,7 +1884,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>101</v>
       </c>
@@ -1473,23 +1892,23 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
       <c r="B34" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="C34" s="18"/>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>106</v>
       </c>
@@ -1497,7 +1916,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>108</v>
       </c>
@@ -1505,7 +1924,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>110</v>
       </c>
@@ -1513,22 +1932,22 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>115</v>
       </c>
@@ -1536,7 +1955,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="345" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>117</v>
       </c>
@@ -1547,21 +1966,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
         <v>120</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="9"/>
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
       <c r="B44" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>122</v>
       </c>
@@ -1569,17 +1988,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>125</v>
       </c>
@@ -1587,12 +2006,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="12:17" ht="377" x14ac:dyDescent="0.35">
+    <row r="68" spans="12:17" ht="405" x14ac:dyDescent="0.25">
       <c r="L68" s="6" t="s">
         <v>57</v>
       </c>
@@ -1614,12 +2033,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="A43:A44"/>
@@ -1629,9 +2042,15 @@
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="C28:C30"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B50" r:id="rId1" location="access-reviewed" display="https://www.w3.org/TR/WCAG10-CORE-TECHS/ - access-reviewed" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B50" r:id="rId1" location="access-reviewed" display="https://www.w3.org/TR/WCAG10-CORE-TECHS/ - access-reviewed"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1640,23 +2059,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.453125" customWidth="1"/>
-    <col min="4" max="4" width="27.453125" customWidth="1"/>
-    <col min="5" max="5" width="30.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>141</v>
       </c>
@@ -1664,7 +2083,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -1678,7 +2097,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>137</v>
       </c>
@@ -1686,7 +2105,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>136</v>
       </c>
@@ -1694,17 +2113,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>133</v>
       </c>
@@ -1712,10 +2131,251 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>132</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="71" customWidth="1"/>
+    <col min="4" max="4" width="49" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="6" max="6" width="39.85546875" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="345" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WCAG Comparison todo it on Sunday..xlsx
+++ b/WCAG Comparison todo it on Sunday..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CrimsonHearts\Documents\GitHub\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6944BB7-F9E4-45D3-B269-D81F7019875A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="3"/>
+    <workbookView xWindow="11850" yWindow="2330" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,6 @@
     <sheet name="Latest" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="205">
   <si>
     <t>WCAG 1.0</t>
   </si>
@@ -905,20 +905,49 @@
 Make Web pages appear and operate in predictable ways.</t>
   </si>
   <si>
+    <t>On Focus: G107: using activate rather than focus as a trigger for changes of context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When implementing On Focus for widget I think that </t>
+  </si>
+  <si>
     <t>On Focus
-When any user interface component receives focus, it does not initiate a change of context</t>
-  </si>
-  <si>
-    <t>On Focus: G107: using activate rather than focus as a trigger for changes of context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When implementing On Focus for widget I think that </t>
+When any user interface component receives focus, it does not initiate a change of context
+On Input
+Changing the setting of any user interface component does not automatically cause a change of context unless the user has been advised of the behavior before using the component.
+Consistent Navigation
+Navigational mechanisms that are repeated on multiple Web pages within a set of Web pages occur in the same relative order each time they are repeated, unless a change is initiated by the user.
+Consistent Identification
+Components that have the same functionality within a set of Web pages are identified consistently.
+Change on Request
+Change of context are initiated only by user request or a mechanism is available to turn off such changes.</t>
+  </si>
+  <si>
+    <t>Input Assistance
+Help User avoid and correct Mistakes</t>
+  </si>
+  <si>
+    <t>Guideline 3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Identification
+If an input error is automatically detected, the item that is in error is identified and the error is described to the user in text
+Error Suggestion
+If an input error is automatically detected and suggestions for correction are known, then the suggestion are provided to the user, unless it would jeopardize the security
+Error Prevention
+For Webpages that cause legal commitment or financial transactions for the user to occur, that modify or delete user-controllable data in data storage systems, or that submit user test response, at least one of the following is true:
+- Reversible Submissions are reversible.
+- Checked: Data entered by the user is checked for input errors and the user is provided an opportunity to correct them.
+- Confirmed: A mechanism is available for reviewin, confirming, and correcting information before finalizing the submission.
+Help
+Context-sensitive help is available
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1046,10 +1075,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1089,7 +1118,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1422,17 +1451,17 @@
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.1796875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
@@ -1446,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1454,7 +1483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1462,7 +1491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="288" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="288" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1470,7 +1499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1481,7 +1510,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="174" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1495,7 +1524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1506,7 +1535,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1517,7 +1546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1525,12 +1554,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
@@ -1541,17 +1570,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
@@ -1562,7 +1591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>4</v>
       </c>
@@ -1575,14 +1604,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C13" r:id="rId1"/>
+    <hyperlink ref="C13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1590,16 +1619,16 @@
       <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="31.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.81640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1607,26 +1636,26 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+    <row r="3" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" s="18"/>
       <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
@@ -1640,99 +1669,99 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="18"/>
       <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="18"/>
       <c r="I4" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="18"/>
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="C5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
       <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="18"/>
       <c r="I6" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+    <row r="7" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="18"/>
       <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="18"/>
       <c r="I7" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+    <row r="8" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
       <c r="B8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="I8" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+    <row r="9" spans="1:10" ht="143.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="18"/>
       <c r="B9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:10" ht="195" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="17"/>
       <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="17"/>
       <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="17"/>
       <c r="D12" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="A13" s="17"/>
       <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>69</v>
       </c>
@@ -1743,7 +1772,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>70</v>
       </c>
@@ -1754,58 +1783,58 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+    <row r="17" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="17"/>
       <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="18"/>
-    </row>
-    <row r="18" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
         <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="17"/>
       <c r="B19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="18"/>
-    </row>
-    <row r="20" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="17"/>
       <c r="B20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="18"/>
-    </row>
-    <row r="21" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="17"/>
       <c r="B21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>86</v>
       </c>
@@ -1816,67 +1845,67 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="17" t="s">
         <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="18"/>
-    </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="17"/>
       <c r="B24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="18"/>
-    </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="17"/>
       <c r="B25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="18"/>
-    </row>
-    <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="17"/>
       <c r="B26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="18"/>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="17"/>
       <c r="B27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="18"/>
-    </row>
-    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="18"/>
-    </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="17"/>
       <c r="B29" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="18"/>
-    </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="17"/>
       <c r="B30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="18"/>
-    </row>
-    <row r="31" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C30" s="17"/>
+    </row>
+    <row r="31" spans="1:4" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>99</v>
       </c>
@@ -1884,7 +1913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>101</v>
       </c>
@@ -1892,23 +1921,23 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="17" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="18"/>
-    </row>
-    <row r="34" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
+      <c r="C33" s="17"/>
+    </row>
+    <row r="34" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A34" s="17"/>
       <c r="B34" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="18"/>
-    </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C34" s="17"/>
+    </row>
+    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>106</v>
       </c>
@@ -1916,7 +1945,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>108</v>
       </c>
@@ -1924,7 +1953,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>110</v>
       </c>
@@ -1932,22 +1961,22 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>115</v>
       </c>
@@ -1955,7 +1984,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="345" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>117</v>
       </c>
@@ -1966,21 +1995,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+    <row r="43" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="17" t="s">
         <v>120</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
+    <row r="44" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="17"/>
       <c r="B44" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>122</v>
       </c>
@@ -1988,17 +2017,17 @@
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="203" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>125</v>
       </c>
@@ -2006,12 +2035,12 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="68" spans="12:17" ht="405" x14ac:dyDescent="0.25">
+    <row r="68" spans="12:17" ht="377" x14ac:dyDescent="0.35">
       <c r="L68" s="6" t="s">
         <v>57</v>
       </c>
@@ -2033,6 +2062,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="A43:A44"/>
@@ -2042,15 +2077,9 @@
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="C28:C30"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B50" r:id="rId1" location="access-reviewed" display="https://www.w3.org/TR/WCAG10-CORE-TECHS/ - access-reviewed"/>
+    <hyperlink ref="B50" r:id="rId1" location="access-reviewed" display="https://www.w3.org/TR/WCAG10-CORE-TECHS/ - access-reviewed" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2059,23 +2088,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.42578125" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.453125" customWidth="1"/>
+    <col min="4" max="4" width="27.453125" customWidth="1"/>
+    <col min="5" max="5" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
         <v>141</v>
       </c>
@@ -2083,7 +2112,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -2097,7 +2126,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>137</v>
       </c>
@@ -2105,7 +2134,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
         <v>136</v>
       </c>
@@ -2113,17 +2142,17 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
         <v>133</v>
       </c>
@@ -2131,7 +2160,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
         <v>132</v>
       </c>
@@ -2143,25 +2172,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="71" customWidth="1"/>
     <col min="4" max="4" width="49" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="39.85546875" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.54296875" customWidth="1"/>
+    <col min="6" max="6" width="39.81640625" customWidth="1"/>
+    <col min="7" max="7" width="48.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>144</v>
       </c>
@@ -2181,7 +2210,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="345" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="319" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -2196,7 +2225,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -2219,7 +2248,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -2234,7 +2263,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="203" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -2251,7 +2280,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>165</v>
       </c>
@@ -2268,7 +2297,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>170</v>
       </c>
@@ -2283,7 +2312,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>174</v>
       </c>
@@ -2300,7 +2329,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>179</v>
       </c>
@@ -2315,7 +2344,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>183</v>
       </c>
@@ -2330,7 +2359,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>193</v>
       </c>
@@ -2345,7 +2374,7 @@
       </c>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="321" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>196</v>
       </c>
@@ -2353,29 +2382,42 @@
         <v>198</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="E12" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="321" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B14" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E14" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WCAG Comparison todo it on Sunday..xlsx
+++ b/WCAG Comparison todo it on Sunday..xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FYP\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6944BB7-F9E4-45D3-B269-D81F7019875A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A5A83E-1B23-46C9-B91A-F841596A06BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11850" yWindow="2330" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11960" yWindow="1730" windowWidth="14400" windowHeight="7360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Latest" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="209">
   <si>
     <t>WCAG 1.0</t>
   </si>
@@ -942,6 +943,18 @@
 Help
 Context-sensitive help is available
 </t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Web Page</t>
+  </si>
+  <si>
+    <t>A collection of information, consisting of one or more Web resources, intended to be rendered simultaneously, and identified by a single URI. More specifically, a Web page consists of a Web resource with zero, one, or more embedded Web resources intended to be rendered as a single unit, and referred to by the URI of the one Web resource which is not embedded.</t>
+  </si>
+  <si>
+    <t>https://www.w3.org/1999/05/WCA-terms/01</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1088,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1637,13 +1650,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="61" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1651,11 +1664,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="87" x14ac:dyDescent="0.35">
-      <c r="A3" s="18"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
@@ -1670,93 +1683,93 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="18"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="17"/>
       <c r="I4" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:10" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="17"/>
       <c r="I6" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="17"/>
       <c r="I7" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="87" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="17"/>
       <c r="I8" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="143.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="17"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="17"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="145" x14ac:dyDescent="0.35">
-      <c r="A13" s="17"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="7" t="s">
         <v>68</v>
       </c>
@@ -1784,52 +1797,52 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="115.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:4" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>85</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:4" ht="87" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="18"/>
     </row>
     <row r="20" spans="1:4" ht="95.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="17"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:4" ht="97.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="17"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="4" t="s">
         <v>84</v>
       </c>
@@ -1846,64 +1859,64 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="18" t="s">
         <v>89</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="18"/>
     </row>
     <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="17"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="18"/>
     </row>
     <row r="25" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="17"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="17"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="17"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="18"/>
     </row>
     <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="18" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="17"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="18"/>
     </row>
     <row r="31" spans="1:4" ht="391.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
@@ -1922,20 +1935,20 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="18" t="s">
         <v>103</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A34" s="17"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
@@ -1996,7 +2009,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="18" t="s">
         <v>120</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -2004,7 +2017,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="17"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="4" t="s">
         <v>77</v>
       </c>
@@ -2062,12 +2075,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C16:C17"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="A43:A44"/>
@@ -2077,6 +2084,12 @@
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="C28:C30"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B50" r:id="rId1" location="access-reviewed" display="https://www.w3.org/TR/WCAG10-CORE-TECHS/ - access-reviewed" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -2175,7 +2188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2423,4 +2436,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9FA3065-B407-4E85-8DE0-7A1EAE132E59}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="46.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{100437E9-10D5-4D15-BC00-FFF00836FBA5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>